--- a/datos/Ppinaster_CyL-datos_ejemplo.xlsx
+++ b/datos/Ppinaster_CyL-datos_ejemplo.xlsx
@@ -26,58 +26,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
-    <t xml:space="preserve">INVENTORY_ID</t>
+    <t xml:space="preserve">ID_Inventario</t>
   </si>
   <si>
-    <t xml:space="preserve">PLOT_ID</t>
+    <t xml:space="preserve">ID_Parcela</t>
   </si>
   <si>
-    <t xml:space="preserve">SPECIE_IFN_ID</t>
+    <t xml:space="preserve">ID_especie_principal</t>
   </si>
   <si>
-    <t xml:space="preserve">YEAR</t>
+    <t xml:space="preserve">Anho</t>
   </si>
   <si>
-    <t xml:space="preserve">AGE</t>
+    <t xml:space="preserve">T</t>
   </si>
   <si>
-    <t xml:space="preserve">DENSITY</t>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">BASAL_AREA</t>
+    <t xml:space="preserve">G</t>
   </si>
   <si>
-    <t xml:space="preserve">DOMINANT_H</t>
+    <t xml:space="preserve">Ho</t>
   </si>
   <si>
-    <t xml:space="preserve">MEAN_H</t>
+    <t xml:space="preserve">h_media</t>
   </si>
   <si>
-    <t xml:space="preserve">QM_DBH</t>
+    <t xml:space="preserve">dg</t>
   </si>
   <si>
-    <t xml:space="preserve">VOL</t>
+    <t xml:space="preserve">V_con_corteza</t>
   </si>
   <si>
     <t xml:space="preserve">Del_Rio_et_al_2006</t>
   </si>
   <si>
-    <t xml:space="preserve">TREE_ID</t>
+    <t xml:space="preserve">ID_arbol</t>
   </si>
   <si>
-    <t xml:space="preserve">specie</t>
+    <t xml:space="preserve">especie</t>
   </si>
   <si>
-    <t xml:space="preserve">expan</t>
+    <t xml:space="preserve">factor_expansion</t>
   </si>
   <si>
     <t xml:space="preserve">dbh</t>
   </si>
   <si>
-    <t xml:space="preserve">height</t>
+    <t xml:space="preserve">h</t>
   </si>
   <si>
-    <t xml:space="preserve">basal_area</t>
+    <t xml:space="preserve">g</t>
   </si>
 </sst>
 </file>
@@ -88,7 +88,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -109,12 +109,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -165,16 +159,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -206,7 +196,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -215,7 +205,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.24"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="13.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.47"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="951" min="12" style="1" width="8.79"/>
@@ -224,29 +214,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="985" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -453,7 +443,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -472,25 +462,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -513,19 +503,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>165</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="3" t="n">
         <f aca="false">(SQRT(H2/PI()))*2</f>
         <v>9.97288536742015</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="3" t="n">
         <f aca="false">Parcelas!I2</f>
         <v>4.8</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H2" s="3" t="n">
         <f aca="false">(Parcelas!G2*10000)/Parcelas!F2</f>
         <v>78.1144781144781</v>
       </c>
@@ -546,19 +536,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>165</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="3" t="n">
         <f aca="false">F2</f>
         <v>9.97288536742015</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="3" t="n">
         <f aca="false">G2+0.7</f>
         <v>5.5</v>
       </c>
-      <c r="H3" s="4" t="n">
+      <c r="H3" s="3" t="n">
         <f aca="false">H$2</f>
         <v>78.1144781144781</v>
       </c>
@@ -579,19 +569,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>165</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="3" t="n">
         <f aca="false">F3</f>
         <v>9.97288536742015</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="3" t="n">
         <f aca="false">G2-0.7</f>
         <v>4.1</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="3" t="n">
         <f aca="false">H$2</f>
         <v>78.1144781144781</v>
       </c>
@@ -612,19 +602,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>26</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>165</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="3" t="n">
         <f aca="false">F$2*1.2</f>
         <v>11.9674624409042</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="3" t="n">
         <f aca="false">G2</f>
         <v>4.8</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="3" t="n">
         <f aca="false">PI()*((F5/2)^2)</f>
         <v>112.484848484848</v>
       </c>
@@ -645,19 +635,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>26</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>165</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="3" t="n">
         <f aca="false">F$2*1.2</f>
         <v>11.9674624409042</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="3" t="n">
         <f aca="false">G3</f>
         <v>5.5</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="3" t="n">
         <f aca="false">PI()*((F6/2)^2)</f>
         <v>112.484848484848</v>
       </c>
@@ -678,19 +668,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>26</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>165</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="3" t="n">
         <f aca="false">F$2*1.2</f>
         <v>11.9674624409042</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="3" t="n">
         <f aca="false">G4</f>
         <v>4.1</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="3" t="n">
         <f aca="false">PI()*((F7/2)^2)</f>
         <v>112.484848484848</v>
       </c>
@@ -711,19 +701,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>165</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="3" t="n">
         <f aca="false">F$2*0.8</f>
         <v>7.97830829393612</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="3" t="n">
         <f aca="false">G5</f>
         <v>4.8</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="3" t="n">
         <f aca="false">PI()*((F8/2)^2)</f>
         <v>49.993265993266</v>
       </c>
@@ -744,19 +734,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>165</v>
       </c>
-      <c r="F9" s="4" t="n">
+      <c r="F9" s="3" t="n">
         <f aca="false">F$2*0.8</f>
         <v>7.97830829393612</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="3" t="n">
         <f aca="false">G6</f>
         <v>5.5</v>
       </c>
-      <c r="H9" s="4" t="n">
+      <c r="H9" s="3" t="n">
         <f aca="false">PI()*((F9/2)^2)</f>
         <v>49.993265993266</v>
       </c>
@@ -777,19 +767,19 @@
         <f aca="false">Parcelas!$C$2</f>
         <v>26</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="3" t="n">
         <f aca="false">Parcelas!$F$2/9</f>
         <v>165</v>
       </c>
-      <c r="F10" s="4" t="n">
+      <c r="F10" s="3" t="n">
         <f aca="false">F$2*0.8</f>
         <v>7.97830829393612</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="3" t="n">
         <f aca="false">G7</f>
         <v>4.1</v>
       </c>
-      <c r="H10" s="4" t="n">
+      <c r="H10" s="3" t="n">
         <f aca="false">PI()*((F10/2)^2)</f>
         <v>49.993265993266</v>
       </c>
@@ -810,19 +800,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>26</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>132.111111111111</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="3" t="n">
         <f aca="false">(SQRT(H11/PI()))*2</f>
         <v>12.9662370816172</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="3" t="n">
         <f aca="false">Parcelas!I3</f>
         <v>6.1</v>
       </c>
-      <c r="H11" s="4" t="n">
+      <c r="H11" s="3" t="n">
         <f aca="false">(Parcelas!G3*10000)/Parcelas!F3</f>
         <v>132.043734230446</v>
       </c>
@@ -843,19 +833,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>26</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>132.111111111111</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="3" t="n">
         <f aca="false">F11</f>
         <v>12.9662370816172</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="3" t="n">
         <f aca="false">G11+0.7</f>
         <v>6.8</v>
       </c>
-      <c r="H12" s="4" t="n">
+      <c r="H12" s="3" t="n">
         <f aca="false">H$11</f>
         <v>132.043734230446</v>
       </c>
@@ -876,19 +866,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>26</v>
       </c>
-      <c r="E13" s="4" t="n">
+      <c r="E13" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>132.111111111111</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="3" t="n">
         <f aca="false">F12</f>
         <v>12.9662370816172</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="3" t="n">
         <f aca="false">G11-0.7</f>
         <v>5.4</v>
       </c>
-      <c r="H13" s="4" t="n">
+      <c r="H13" s="3" t="n">
         <f aca="false">H$11</f>
         <v>132.043734230446</v>
       </c>
@@ -909,19 +899,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>26</v>
       </c>
-      <c r="E14" s="4" t="n">
+      <c r="E14" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>132.111111111111</v>
       </c>
-      <c r="F14" s="4" t="n">
+      <c r="F14" s="3" t="n">
         <f aca="false">F$11*1.2</f>
         <v>15.5594844979406</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="3" t="n">
         <f aca="false">G11</f>
         <v>6.1</v>
       </c>
-      <c r="H14" s="4" t="n">
+      <c r="H14" s="3" t="n">
         <f aca="false">PI()*((F14/2)^2)</f>
         <v>190.142977291842</v>
       </c>
@@ -942,19 +932,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>26</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>132.111111111111</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="3" t="n">
         <f aca="false">F$11*1.2</f>
         <v>15.5594844979406</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="3" t="n">
         <f aca="false">G12</f>
         <v>6.8</v>
       </c>
-      <c r="H15" s="4" t="n">
+      <c r="H15" s="3" t="n">
         <f aca="false">PI()*((F15/2)^2)</f>
         <v>190.142977291842</v>
       </c>
@@ -975,19 +965,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>26</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>132.111111111111</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="3" t="n">
         <f aca="false">F$11*1.2</f>
         <v>15.5594844979406</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="3" t="n">
         <f aca="false">G13</f>
         <v>5.4</v>
       </c>
-      <c r="H16" s="4" t="n">
+      <c r="H16" s="3" t="n">
         <f aca="false">PI()*((F16/2)^2)</f>
         <v>190.142977291842</v>
       </c>
@@ -1008,19 +998,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>26</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>132.111111111111</v>
       </c>
-      <c r="F17" s="4" t="n">
+      <c r="F17" s="3" t="n">
         <f aca="false">F$11*0.8</f>
         <v>10.3729896652937</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="3" t="n">
         <f aca="false">G14</f>
         <v>6.1</v>
       </c>
-      <c r="H17" s="4" t="n">
+      <c r="H17" s="3" t="n">
         <f aca="false">PI()*((F17/2)^2)</f>
         <v>84.5079899074853</v>
       </c>
@@ -1041,19 +1031,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>26</v>
       </c>
-      <c r="E18" s="4" t="n">
+      <c r="E18" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>132.111111111111</v>
       </c>
-      <c r="F18" s="4" t="n">
+      <c r="F18" s="3" t="n">
         <f aca="false">F$11*0.8</f>
         <v>10.3729896652937</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="3" t="n">
         <f aca="false">G15</f>
         <v>6.8</v>
       </c>
-      <c r="H18" s="4" t="n">
+      <c r="H18" s="3" t="n">
         <f aca="false">PI()*((F18/2)^2)</f>
         <v>84.5079899074853</v>
       </c>
@@ -1074,19 +1064,19 @@
         <f aca="false">Parcelas!$C$3</f>
         <v>26</v>
       </c>
-      <c r="E19" s="4" t="n">
+      <c r="E19" s="3" t="n">
         <f aca="false">Parcelas!$F$3/9</f>
         <v>132.111111111111</v>
       </c>
-      <c r="F19" s="4" t="n">
+      <c r="F19" s="3" t="n">
         <f aca="false">F$11*0.8</f>
         <v>10.3729896652937</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="3" t="n">
         <f aca="false">G16</f>
         <v>5.4</v>
       </c>
-      <c r="H19" s="4" t="n">
+      <c r="H19" s="3" t="n">
         <f aca="false">PI()*((F19/2)^2)</f>
         <v>84.5079899074853</v>
       </c>
@@ -1107,19 +1097,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>26</v>
       </c>
-      <c r="E20" s="4" t="n">
+      <c r="E20" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>110.222222222222</v>
       </c>
-      <c r="F20" s="4" t="n">
+      <c r="F20" s="3" t="n">
         <f aca="false">(SQRT(H20/PI()))*2</f>
         <v>15.7797489042913</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="3" t="n">
         <f aca="false">Parcelas!I4</f>
         <v>7.5</v>
       </c>
-      <c r="H20" s="4" t="n">
+      <c r="H20" s="3" t="n">
         <f aca="false">(Parcelas!G4*10000)/Parcelas!F4</f>
         <v>195.564516129032</v>
       </c>
@@ -1140,19 +1130,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>26</v>
       </c>
-      <c r="E21" s="4" t="n">
+      <c r="E21" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>110.222222222222</v>
       </c>
-      <c r="F21" s="4" t="n">
+      <c r="F21" s="3" t="n">
         <f aca="false">F20</f>
         <v>15.7797489042913</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="3" t="n">
         <f aca="false">G20+0.7</f>
         <v>8.2</v>
       </c>
-      <c r="H21" s="4" t="n">
+      <c r="H21" s="3" t="n">
         <f aca="false">H$20</f>
         <v>195.564516129032</v>
       </c>
@@ -1173,19 +1163,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>26</v>
       </c>
-      <c r="E22" s="4" t="n">
+      <c r="E22" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>110.222222222222</v>
       </c>
-      <c r="F22" s="4" t="n">
+      <c r="F22" s="3" t="n">
         <f aca="false">F21</f>
         <v>15.7797489042913</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="3" t="n">
         <f aca="false">G20-0.7</f>
         <v>6.8</v>
       </c>
-      <c r="H22" s="4" t="n">
+      <c r="H22" s="3" t="n">
         <f aca="false">H$20</f>
         <v>195.564516129032</v>
       </c>
@@ -1206,19 +1196,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>26</v>
       </c>
-      <c r="E23" s="4" t="n">
+      <c r="E23" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>110.222222222222</v>
       </c>
-      <c r="F23" s="4" t="n">
+      <c r="F23" s="3" t="n">
         <f aca="false">F$20*1.2</f>
         <v>18.9356986851495</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="3" t="n">
         <f aca="false">G20</f>
         <v>7.5</v>
       </c>
-      <c r="H23" s="4" t="n">
+      <c r="H23" s="3" t="n">
         <f aca="false">PI()*((F23/2)^2)</f>
         <v>281.612903225806</v>
       </c>
@@ -1239,19 +1229,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>26</v>
       </c>
-      <c r="E24" s="4" t="n">
+      <c r="E24" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>110.222222222222</v>
       </c>
-      <c r="F24" s="4" t="n">
+      <c r="F24" s="3" t="n">
         <f aca="false">F$20*1.2</f>
         <v>18.9356986851495</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="3" t="n">
         <f aca="false">G21</f>
         <v>8.2</v>
       </c>
-      <c r="H24" s="4" t="n">
+      <c r="H24" s="3" t="n">
         <f aca="false">PI()*((F24/2)^2)</f>
         <v>281.612903225806</v>
       </c>
@@ -1272,19 +1262,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>26</v>
       </c>
-      <c r="E25" s="4" t="n">
+      <c r="E25" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>110.222222222222</v>
       </c>
-      <c r="F25" s="4" t="n">
+      <c r="F25" s="3" t="n">
         <f aca="false">F$20*1.2</f>
         <v>18.9356986851495</v>
       </c>
-      <c r="G25" s="4" t="n">
+      <c r="G25" s="3" t="n">
         <f aca="false">G22</f>
         <v>6.8</v>
       </c>
-      <c r="H25" s="4" t="n">
+      <c r="H25" s="3" t="n">
         <f aca="false">PI()*((F25/2)^2)</f>
         <v>281.612903225806</v>
       </c>
@@ -1305,19 +1295,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>26</v>
       </c>
-      <c r="E26" s="4" t="n">
+      <c r="E26" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>110.222222222222</v>
       </c>
-      <c r="F26" s="4" t="n">
+      <c r="F26" s="3" t="n">
         <f aca="false">F$20*0.8</f>
         <v>12.623799123433</v>
       </c>
-      <c r="G26" s="4" t="n">
+      <c r="G26" s="3" t="n">
         <f aca="false">G23</f>
         <v>7.5</v>
       </c>
-      <c r="H26" s="4" t="n">
+      <c r="H26" s="3" t="n">
         <f aca="false">PI()*((F26/2)^2)</f>
         <v>125.161290322581</v>
       </c>
@@ -1338,19 +1328,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>26</v>
       </c>
-      <c r="E27" s="4" t="n">
+      <c r="E27" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>110.222222222222</v>
       </c>
-      <c r="F27" s="4" t="n">
+      <c r="F27" s="3" t="n">
         <f aca="false">F$20*0.8</f>
         <v>12.623799123433</v>
       </c>
-      <c r="G27" s="4" t="n">
+      <c r="G27" s="3" t="n">
         <f aca="false">G24</f>
         <v>8.2</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="3" t="n">
         <f aca="false">PI()*((F27/2)^2)</f>
         <v>125.161290322581</v>
       </c>
@@ -1371,19 +1361,19 @@
         <f aca="false">Parcelas!$C$4</f>
         <v>26</v>
       </c>
-      <c r="E28" s="4" t="n">
+      <c r="E28" s="3" t="n">
         <f aca="false">Parcelas!$F$4/9</f>
         <v>110.222222222222</v>
       </c>
-      <c r="F28" s="4" t="n">
+      <c r="F28" s="3" t="n">
         <f aca="false">F$20*0.8</f>
         <v>12.623799123433</v>
       </c>
-      <c r="G28" s="4" t="n">
+      <c r="G28" s="3" t="n">
         <f aca="false">G25</f>
         <v>6.8</v>
       </c>
-      <c r="H28" s="4" t="n">
+      <c r="H28" s="3" t="n">
         <f aca="false">PI()*((F28/2)^2)</f>
         <v>125.161290322581</v>
       </c>
@@ -1404,19 +1394,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>26</v>
       </c>
-      <c r="E29" s="4" t="n">
+      <c r="E29" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>94.5555555555556</v>
       </c>
-      <c r="F29" s="4" t="n">
+      <c r="F29" s="3" t="n">
         <f aca="false">(SQRT(H29/PI()))*2</f>
         <v>18.4290610135521</v>
       </c>
-      <c r="G29" s="4" t="n">
+      <c r="G29" s="3" t="n">
         <f aca="false">Parcelas!I5</f>
         <v>8.8</v>
       </c>
-      <c r="H29" s="4" t="n">
+      <c r="H29" s="3" t="n">
         <f aca="false">(Parcelas!G5*10000)/Parcelas!F5</f>
         <v>266.745005875441</v>
       </c>
@@ -1437,19 +1427,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>26</v>
       </c>
-      <c r="E30" s="4" t="n">
+      <c r="E30" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>94.5555555555556</v>
       </c>
-      <c r="F30" s="4" t="n">
+      <c r="F30" s="3" t="n">
         <f aca="false">F29</f>
         <v>18.4290610135521</v>
       </c>
-      <c r="G30" s="4" t="n">
+      <c r="G30" s="3" t="n">
         <f aca="false">G29+0.7</f>
         <v>9.5</v>
       </c>
-      <c r="H30" s="4" t="n">
+      <c r="H30" s="3" t="n">
         <f aca="false">H$29</f>
         <v>266.745005875441</v>
       </c>
@@ -1470,19 +1460,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>26</v>
       </c>
-      <c r="E31" s="4" t="n">
+      <c r="E31" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>94.5555555555556</v>
       </c>
-      <c r="F31" s="4" t="n">
+      <c r="F31" s="3" t="n">
         <f aca="false">F30</f>
         <v>18.4290610135521</v>
       </c>
-      <c r="G31" s="4" t="n">
+      <c r="G31" s="3" t="n">
         <f aca="false">G29-0.7</f>
         <v>8.1</v>
       </c>
-      <c r="H31" s="4" t="n">
+      <c r="H31" s="3" t="n">
         <f aca="false">H$29</f>
         <v>266.745005875441</v>
       </c>
@@ -1503,19 +1493,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>26</v>
       </c>
-      <c r="E32" s="4" t="n">
+      <c r="E32" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>94.5555555555556</v>
       </c>
-      <c r="F32" s="4" t="n">
+      <c r="F32" s="3" t="n">
         <f aca="false">F$29*1.2</f>
         <v>22.1148732162625</v>
       </c>
-      <c r="G32" s="4" t="n">
+      <c r="G32" s="3" t="n">
         <f aca="false">G29</f>
         <v>8.8</v>
       </c>
-      <c r="H32" s="4" t="n">
+      <c r="H32" s="3" t="n">
         <f aca="false">PI()*((F32/2)^2)</f>
         <v>384.112808460634</v>
       </c>
@@ -1536,19 +1526,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>26</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E33" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>94.5555555555556</v>
       </c>
-      <c r="F33" s="4" t="n">
+      <c r="F33" s="3" t="n">
         <f aca="false">F$29*1.2</f>
         <v>22.1148732162625</v>
       </c>
-      <c r="G33" s="4" t="n">
+      <c r="G33" s="3" t="n">
         <f aca="false">G30</f>
         <v>9.5</v>
       </c>
-      <c r="H33" s="4" t="n">
+      <c r="H33" s="3" t="n">
         <f aca="false">PI()*((F33/2)^2)</f>
         <v>384.112808460634</v>
       </c>
@@ -1569,19 +1559,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>26</v>
       </c>
-      <c r="E34" s="4" t="n">
+      <c r="E34" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>94.5555555555556</v>
       </c>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="3" t="n">
         <f aca="false">F$29*1.2</f>
         <v>22.1148732162625</v>
       </c>
-      <c r="G34" s="4" t="n">
+      <c r="G34" s="3" t="n">
         <f aca="false">G31</f>
         <v>8.1</v>
       </c>
-      <c r="H34" s="4" t="n">
+      <c r="H34" s="3" t="n">
         <f aca="false">PI()*((F34/2)^2)</f>
         <v>384.112808460634</v>
       </c>
@@ -1602,19 +1592,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>26</v>
       </c>
-      <c r="E35" s="4" t="n">
+      <c r="E35" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>94.5555555555556</v>
       </c>
-      <c r="F35" s="4" t="n">
+      <c r="F35" s="3" t="n">
         <f aca="false">F$29*0.8</f>
         <v>14.7432488108416</v>
       </c>
-      <c r="G35" s="4" t="n">
+      <c r="G35" s="3" t="n">
         <f aca="false">G32</f>
         <v>8.8</v>
       </c>
-      <c r="H35" s="4" t="n">
+      <c r="H35" s="3" t="n">
         <f aca="false">PI()*((F35/2)^2)</f>
         <v>170.716803760282</v>
       </c>
@@ -1635,19 +1625,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>26</v>
       </c>
-      <c r="E36" s="4" t="n">
+      <c r="E36" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>94.5555555555556</v>
       </c>
-      <c r="F36" s="4" t="n">
+      <c r="F36" s="3" t="n">
         <f aca="false">F$29*0.8</f>
         <v>14.7432488108416</v>
       </c>
-      <c r="G36" s="4" t="n">
+      <c r="G36" s="3" t="n">
         <f aca="false">G33</f>
         <v>9.5</v>
       </c>
-      <c r="H36" s="4" t="n">
+      <c r="H36" s="3" t="n">
         <f aca="false">PI()*((F36/2)^2)</f>
         <v>170.716803760282</v>
       </c>
@@ -1668,19 +1658,19 @@
         <f aca="false">Parcelas!$C$5</f>
         <v>26</v>
       </c>
-      <c r="E37" s="4" t="n">
+      <c r="E37" s="3" t="n">
         <f aca="false">Parcelas!$F$5/9</f>
         <v>94.5555555555556</v>
       </c>
-      <c r="F37" s="4" t="n">
+      <c r="F37" s="3" t="n">
         <f aca="false">F$29*0.8</f>
         <v>14.7432488108416</v>
       </c>
-      <c r="G37" s="4" t="n">
+      <c r="G37" s="3" t="n">
         <f aca="false">G34</f>
         <v>8.1</v>
       </c>
-      <c r="H37" s="4" t="n">
+      <c r="H37" s="3" t="n">
         <f aca="false">PI()*((F37/2)^2)</f>
         <v>170.716803760282</v>
       </c>
@@ -1701,19 +1691,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>26</v>
       </c>
-      <c r="E38" s="4" t="n">
+      <c r="E38" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>82.7777777777778</v>
       </c>
-      <c r="F38" s="4" t="n">
+      <c r="F38" s="3" t="n">
         <f aca="false">(SQRT(H38/PI()))*2</f>
         <v>20.9576934984366</v>
       </c>
-      <c r="G38" s="4" t="n">
+      <c r="G38" s="3" t="n">
         <f aca="false">Parcelas!I6</f>
         <v>10.2</v>
       </c>
-      <c r="H38" s="4" t="n">
+      <c r="H38" s="3" t="n">
         <f aca="false">(Parcelas!G6*10000)/Parcelas!F6</f>
         <v>344.96644295302</v>
       </c>
@@ -1734,19 +1724,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>26</v>
       </c>
-      <c r="E39" s="4" t="n">
+      <c r="E39" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>82.7777777777778</v>
       </c>
-      <c r="F39" s="4" t="n">
+      <c r="F39" s="3" t="n">
         <f aca="false">F38</f>
         <v>20.9576934984366</v>
       </c>
-      <c r="G39" s="4" t="n">
+      <c r="G39" s="3" t="n">
         <f aca="false">G38+0.7</f>
         <v>10.9</v>
       </c>
-      <c r="H39" s="4" t="n">
+      <c r="H39" s="3" t="n">
         <f aca="false">H$38</f>
         <v>344.96644295302</v>
       </c>
@@ -1767,19 +1757,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>26</v>
       </c>
-      <c r="E40" s="4" t="n">
+      <c r="E40" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>82.7777777777778</v>
       </c>
-      <c r="F40" s="4" t="n">
+      <c r="F40" s="3" t="n">
         <f aca="false">F39</f>
         <v>20.9576934984366</v>
       </c>
-      <c r="G40" s="4" t="n">
+      <c r="G40" s="3" t="n">
         <f aca="false">G38-0.7</f>
         <v>9.5</v>
       </c>
-      <c r="H40" s="4" t="n">
+      <c r="H40" s="3" t="n">
         <f aca="false">H$38</f>
         <v>344.96644295302</v>
       </c>
@@ -1800,19 +1790,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>26</v>
       </c>
-      <c r="E41" s="4" t="n">
+      <c r="E41" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>82.7777777777778</v>
       </c>
-      <c r="F41" s="4" t="n">
+      <c r="F41" s="3" t="n">
         <f aca="false">F$38*1.2</f>
         <v>25.1492321981239</v>
       </c>
-      <c r="G41" s="4" t="n">
+      <c r="G41" s="3" t="n">
         <f aca="false">G38</f>
         <v>10.2</v>
       </c>
-      <c r="H41" s="4" t="n">
+      <c r="H41" s="3" t="n">
         <f aca="false">PI()*((F41/2)^2)</f>
         <v>496.751677852349</v>
       </c>
@@ -1833,19 +1823,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>26</v>
       </c>
-      <c r="E42" s="4" t="n">
+      <c r="E42" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>82.7777777777778</v>
       </c>
-      <c r="F42" s="4" t="n">
+      <c r="F42" s="3" t="n">
         <f aca="false">F$38*1.2</f>
         <v>25.1492321981239</v>
       </c>
-      <c r="G42" s="4" t="n">
+      <c r="G42" s="3" t="n">
         <f aca="false">G39</f>
         <v>10.9</v>
       </c>
-      <c r="H42" s="4" t="n">
+      <c r="H42" s="3" t="n">
         <f aca="false">PI()*((F42/2)^2)</f>
         <v>496.751677852349</v>
       </c>
@@ -1866,19 +1856,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>26</v>
       </c>
-      <c r="E43" s="4" t="n">
+      <c r="E43" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>82.7777777777778</v>
       </c>
-      <c r="F43" s="4" t="n">
+      <c r="F43" s="3" t="n">
         <f aca="false">F$38*1.2</f>
         <v>25.1492321981239</v>
       </c>
-      <c r="G43" s="4" t="n">
+      <c r="G43" s="3" t="n">
         <f aca="false">G40</f>
         <v>9.5</v>
       </c>
-      <c r="H43" s="4" t="n">
+      <c r="H43" s="3" t="n">
         <f aca="false">PI()*((F43/2)^2)</f>
         <v>496.751677852349</v>
       </c>
@@ -1899,19 +1889,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>26</v>
       </c>
-      <c r="E44" s="4" t="n">
+      <c r="E44" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>82.7777777777778</v>
       </c>
-      <c r="F44" s="4" t="n">
+      <c r="F44" s="3" t="n">
         <f aca="false">F$38*0.8</f>
         <v>16.7661547987493</v>
       </c>
-      <c r="G44" s="4" t="n">
+      <c r="G44" s="3" t="n">
         <f aca="false">G41</f>
         <v>10.2</v>
       </c>
-      <c r="H44" s="4" t="n">
+      <c r="H44" s="3" t="n">
         <f aca="false">PI()*((F44/2)^2)</f>
         <v>220.778523489933</v>
       </c>
@@ -1932,19 +1922,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>26</v>
       </c>
-      <c r="E45" s="4" t="n">
+      <c r="E45" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>82.7777777777778</v>
       </c>
-      <c r="F45" s="4" t="n">
+      <c r="F45" s="3" t="n">
         <f aca="false">F$38*0.8</f>
         <v>16.7661547987493</v>
       </c>
-      <c r="G45" s="4" t="n">
+      <c r="G45" s="3" t="n">
         <f aca="false">G42</f>
         <v>10.9</v>
       </c>
-      <c r="H45" s="4" t="n">
+      <c r="H45" s="3" t="n">
         <f aca="false">PI()*((F45/2)^2)</f>
         <v>220.778523489933</v>
       </c>
@@ -1965,19 +1955,19 @@
         <f aca="false">Parcelas!$C$6</f>
         <v>26</v>
       </c>
-      <c r="E46" s="4" t="n">
+      <c r="E46" s="3" t="n">
         <f aca="false">Parcelas!$F$6/9</f>
         <v>82.7777777777778</v>
       </c>
-      <c r="F46" s="4" t="n">
+      <c r="F46" s="3" t="n">
         <f aca="false">F$38*0.8</f>
         <v>16.7661547987493</v>
       </c>
-      <c r="G46" s="4" t="n">
+      <c r="G46" s="3" t="n">
         <f aca="false">G43</f>
         <v>9.5</v>
       </c>
-      <c r="H46" s="4" t="n">
+      <c r="H46" s="3" t="n">
         <f aca="false">PI()*((F46/2)^2)</f>
         <v>220.778523489933</v>
       </c>
